--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/20/seed4/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.671699999999991</v>
+        <v>-6.640199999999992</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.286699999999995</v>
+        <v>-5.839999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.277599999999996</v>
+        <v>-8.342299999999998</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.37539999999996</v>
+        <v>-20.36649999999997</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.369999999999997</v>
+        <v>-8.366099999999999</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -641,7 +641,7 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.331500000000007</v>
+        <v>-8.410800000000009</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-21.99580000000002</v>
+        <v>-21.91550000000002</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-19.93829999999999</v>
+        <v>-20.11289999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-23.00020000000002</v>
+        <v>-23.26760000000001</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.23100000000002</v>
+        <v>-22.23910000000003</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.4536</v>
+        <v>-7.687900000000002</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
